--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H2">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>513.164406851932</v>
+        <v>546.913765864817</v>
       </c>
       <c r="R2">
-        <v>513.164406851932</v>
+        <v>4922.223892783354</v>
       </c>
       <c r="S2">
-        <v>0.05852565472659317</v>
+        <v>0.05205059572329665</v>
       </c>
       <c r="T2">
-        <v>0.05852565472659317</v>
+        <v>0.05205059572329664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H3">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>0.6618630234257246</v>
+        <v>0.8761354006065557</v>
       </c>
       <c r="R3">
-        <v>0.6618630234257246</v>
+        <v>7.885218605459001</v>
       </c>
       <c r="S3">
-        <v>7.548451581617555E-05</v>
+        <v>8.338310787209617E-05</v>
       </c>
       <c r="T3">
-        <v>7.548451581617555E-05</v>
+        <v>8.338310787209615E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H4">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>15.3816518301992</v>
+        <v>17.60646702681534</v>
       </c>
       <c r="R4">
-        <v>15.3816518301992</v>
+        <v>158.458203241338</v>
       </c>
       <c r="S4">
-        <v>0.001754255034290905</v>
+        <v>0.001675633627321853</v>
       </c>
       <c r="T4">
-        <v>0.001754255034290905</v>
+        <v>0.001675633627321852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H5">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>7.94303637682711</v>
+        <v>9.744041891776112</v>
       </c>
       <c r="R5">
-        <v>7.94303637682711</v>
+        <v>87.69637702598502</v>
       </c>
       <c r="S5">
-        <v>0.0009058917537222854</v>
+        <v>0.0009273549449202704</v>
       </c>
       <c r="T5">
-        <v>0.0009058917537222854</v>
+        <v>0.0009273549449202702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H6">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>0.3736760330403627</v>
+        <v>0.5109961616832224</v>
       </c>
       <c r="R6">
-        <v>0.3736760330403627</v>
+        <v>4.598965455149001</v>
       </c>
       <c r="S6">
-        <v>4.261720843712673E-05</v>
+        <v>4.863226396554807E-05</v>
       </c>
       <c r="T6">
-        <v>4.261720843712673E-05</v>
+        <v>4.863226396554805E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H7">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N7">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q7">
-        <v>2381.430380369495</v>
+        <v>2522.19399397484</v>
       </c>
       <c r="R7">
-        <v>2381.430380369495</v>
+        <v>22699.74594577356</v>
       </c>
       <c r="S7">
-        <v>0.2715986735166135</v>
+        <v>0.2400409499814286</v>
       </c>
       <c r="T7">
-        <v>0.2715986735166135</v>
+        <v>0.2400409499814286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H8">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N8">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q8">
-        <v>3.071492665086605</v>
+        <v>4.040460458742222</v>
       </c>
       <c r="R8">
-        <v>3.071492665086605</v>
+        <v>36.36414412868</v>
       </c>
       <c r="S8">
-        <v>0.0003502992740959725</v>
+        <v>0.0003845366253332521</v>
       </c>
       <c r="T8">
-        <v>0.0003502992740959725</v>
+        <v>0.0003845366253332521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H9">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N9">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q9">
-        <v>71.38128147549348</v>
+        <v>81.19547936397333</v>
       </c>
       <c r="R9">
-        <v>71.38128147549348</v>
+        <v>730.7593142757599</v>
       </c>
       <c r="S9">
-        <v>0.008140931400922166</v>
+        <v>0.007727494414499849</v>
       </c>
       <c r="T9">
-        <v>0.008140931400922166</v>
+        <v>0.007727494414499847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H10">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N10">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q10">
-        <v>36.8610680857569</v>
+        <v>44.93645154024444</v>
       </c>
       <c r="R10">
-        <v>36.8610680857569</v>
+        <v>404.4280638622</v>
       </c>
       <c r="S10">
-        <v>0.004203951238307378</v>
+        <v>0.004276668861428709</v>
       </c>
       <c r="T10">
-        <v>0.004203951238307378</v>
+        <v>0.004276668861428708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H11">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N11">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O11">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P11">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q11">
-        <v>1.734109859562106</v>
+        <v>2.356553318608889</v>
       </c>
       <c r="R11">
-        <v>1.734109859562106</v>
+        <v>21.20897986748</v>
       </c>
       <c r="S11">
-        <v>0.0001977727089868034</v>
+        <v>0.0002242766807914335</v>
       </c>
       <c r="T11">
-        <v>0.0001977727089868034</v>
+        <v>0.0002242766807914334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H12">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N12">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q12">
-        <v>2691.800274845098</v>
+        <v>3097.821373800107</v>
       </c>
       <c r="R12">
-        <v>2691.800274845098</v>
+        <v>27880.39236420096</v>
       </c>
       <c r="S12">
-        <v>0.306995908864718</v>
+        <v>0.294824263009156</v>
       </c>
       <c r="T12">
-        <v>0.306995908864718</v>
+        <v>0.294824263009156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H13">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N13">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q13">
-        <v>3.471797818747073</v>
+        <v>4.962593995143223</v>
       </c>
       <c r="R13">
-        <v>3.471797818747073</v>
+        <v>44.66334595628901</v>
       </c>
       <c r="S13">
-        <v>0.0003959534950348934</v>
+        <v>0.0004722974441347413</v>
       </c>
       <c r="T13">
-        <v>0.0003959534950348934</v>
+        <v>0.0004722974441347413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H14">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N14">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q14">
-        <v>80.68434613012545</v>
+        <v>99.72630655315535</v>
       </c>
       <c r="R14">
-        <v>80.68434613012545</v>
+        <v>897.5367589783981</v>
       </c>
       <c r="S14">
-        <v>0.009201932402952428</v>
+        <v>0.009491100771924752</v>
       </c>
       <c r="T14">
-        <v>0.009201932402952428</v>
+        <v>0.009491100771924749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H15">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N15">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q15">
-        <v>41.66514126225653</v>
+        <v>55.19206705615944</v>
       </c>
       <c r="R15">
-        <v>41.66514126225653</v>
+        <v>496.728603505435</v>
       </c>
       <c r="S15">
-        <v>0.00475184880145663</v>
+        <v>0.005252711028274449</v>
       </c>
       <c r="T15">
-        <v>0.00475184880145663</v>
+        <v>0.005252711028274448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H16">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N16">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O16">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P16">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q16">
-        <v>1.960114994357558</v>
+        <v>2.89437737791989</v>
       </c>
       <c r="R16">
-        <v>1.960114994357558</v>
+        <v>26.049396401279</v>
       </c>
       <c r="S16">
-        <v>0.0002235482661159875</v>
+        <v>0.0002754621956361606</v>
       </c>
       <c r="T16">
-        <v>0.0002235482661159875</v>
+        <v>0.0002754621956361605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H17">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N17">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O17">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P17">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q17">
-        <v>2076.621913296697</v>
+        <v>2977.57594226817</v>
       </c>
       <c r="R17">
-        <v>2076.621913296697</v>
+        <v>26798.18348041353</v>
       </c>
       <c r="S17">
-        <v>0.2368357108803682</v>
+        <v>0.2833803266248792</v>
       </c>
       <c r="T17">
-        <v>0.2368357108803682</v>
+        <v>0.2833803266248792</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H18">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N18">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P18">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q18">
-        <v>2.6783604624458</v>
+        <v>4.76996531051</v>
       </c>
       <c r="R18">
-        <v>2.6783604624458</v>
+        <v>42.92968779459</v>
       </c>
       <c r="S18">
-        <v>0.000305463117795094</v>
+        <v>0.0004539646860029364</v>
       </c>
       <c r="T18">
-        <v>0.000305463117795094</v>
+        <v>0.0004539646860029364</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H19">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N19">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O19">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P19">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q19">
-        <v>62.24491571666696</v>
+        <v>95.85531745482001</v>
       </c>
       <c r="R19">
-        <v>62.24491571666696</v>
+        <v>862.6978570933801</v>
       </c>
       <c r="S19">
-        <v>0.007098942165664792</v>
+        <v>0.009122692987768622</v>
       </c>
       <c r="T19">
-        <v>0.007098942165664792</v>
+        <v>0.00912269298776862</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H20">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N20">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O20">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P20">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q20">
-        <v>32.14307769204137</v>
+        <v>53.04972470665</v>
       </c>
       <c r="R20">
-        <v>32.14307769204137</v>
+        <v>477.44752235985</v>
       </c>
       <c r="S20">
-        <v>0.003665871291414938</v>
+        <v>0.005048821123695276</v>
       </c>
       <c r="T20">
-        <v>0.003665871291414938</v>
+        <v>0.005048821123695275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H21">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N21">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O21">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P21">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q21">
-        <v>1.512154444704696</v>
+        <v>2.78202885461</v>
       </c>
       <c r="R21">
-        <v>1.512154444704696</v>
+        <v>25.03825969149</v>
       </c>
       <c r="S21">
-        <v>0.000172459016530361</v>
+        <v>0.0002647698197409123</v>
       </c>
       <c r="T21">
-        <v>0.000172459016530361</v>
+        <v>0.0002647698197409122</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H22">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N22">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O22">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P22">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q22">
-        <v>707.8106512640577</v>
+        <v>838.296411806582</v>
       </c>
       <c r="R22">
-        <v>707.8106512640577</v>
+        <v>7544.667706259238</v>
       </c>
       <c r="S22">
-        <v>0.08072477598711955</v>
+        <v>0.07978191508534777</v>
       </c>
       <c r="T22">
-        <v>0.08072477598711955</v>
+        <v>0.07978191508534775</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H23">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N23">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O23">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P23">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q23">
-        <v>0.9129115180307769</v>
+        <v>1.342919502901555</v>
       </c>
       <c r="R23">
-        <v>0.9129115180307769</v>
+        <v>12.086275526114</v>
       </c>
       <c r="S23">
-        <v>0.0001041162317315892</v>
+        <v>0.0001278076444536537</v>
       </c>
       <c r="T23">
-        <v>0.0001041162317315892</v>
+        <v>0.0001278076444536537</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H24">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N24">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O24">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P24">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q24">
-        <v>21.21600183894221</v>
+        <v>26.98677388350534</v>
       </c>
       <c r="R24">
-        <v>21.21600183894221</v>
+        <v>242.880964951548</v>
       </c>
       <c r="S24">
-        <v>0.002419654172669405</v>
+        <v>0.002568371368501184</v>
       </c>
       <c r="T24">
-        <v>0.002419654172669405</v>
+        <v>0.002568371368501184</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H25">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N25">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O25">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P25">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q25">
-        <v>10.9558762763496</v>
+        <v>14.93543564670111</v>
       </c>
       <c r="R25">
-        <v>10.9558762763496</v>
+        <v>134.41892082031</v>
       </c>
       <c r="S25">
-        <v>0.001249501765156369</v>
+        <v>0.001421427602153108</v>
       </c>
       <c r="T25">
-        <v>0.001249501765156369</v>
+        <v>0.001421427602153107</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H26">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N26">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O26">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P26">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q26">
-        <v>0.51541352591195</v>
+        <v>0.7832427624282223</v>
       </c>
       <c r="R26">
-        <v>0.51541352591195</v>
+        <v>7.049184861854</v>
       </c>
       <c r="S26">
-        <v>5.878216348633572E-05</v>
+        <v>7.454237747313594E-05</v>
       </c>
       <c r="T26">
-        <v>5.878216348633572E-05</v>
+        <v>7.454237747313591E-05</v>
       </c>
     </row>
   </sheetData>
